--- a/Planilha de Gerenciamento - Kovalski Surebet 2025.xlsx
+++ b/Planilha de Gerenciamento - Kovalski Surebet 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovalski\Desktop\Nova pasta\Site Surebet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958E3B06-8CDA-4D5D-9C8B-09A91E2E75BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DC2F45-81F4-457D-B388-C2C5A097E050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{BE2AA4BC-E36B-43D9-9102-AB1EDC39A49F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="2" xr2:uid="{BE2AA4BC-E36B-43D9-9102-AB1EDC39A49F}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="31">
   <si>
     <t>Data</t>
   </si>
@@ -76,12 +76,6 @@
   </si>
   <si>
     <t>Lucro Final</t>
-  </si>
-  <si>
-    <t>Betfair</t>
-  </si>
-  <si>
-    <t>VBet</t>
   </si>
   <si>
     <t>Horario</t>
@@ -437,35 +431,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,6 +493,15 @@
     <xf numFmtId="44" fontId="11" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,49 +511,30 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="9" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -925,359 +919,359 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC1CAB6-3AC5-444C-9C1E-415A5756713B}">
   <dimension ref="D1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="16"/>
-    <col min="8" max="8" width="1.28515625" style="16" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" style="16"/>
-    <col min="16" max="16" width="15.28515625" style="16" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="16" customWidth="1"/>
-    <col min="18" max="18" width="1" style="16" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="16" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="16" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="7" width="9.140625" style="14"/>
+    <col min="8" max="8" width="1.28515625" style="14" customWidth="1"/>
+    <col min="9" max="15" width="9.140625" style="14"/>
+    <col min="16" max="16" width="15.28515625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" style="14" customWidth="1"/>
+    <col min="18" max="18" width="1" style="14" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="14" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" style="14" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="16:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="16:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="19"/>
+      <c r="P2" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="46"/>
     </row>
     <row r="3" spans="16:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="22"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="54"/>
     </row>
     <row r="4" spans="16:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="51"/>
+    </row>
+    <row r="5" spans="16:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="P5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="39" t="s">
+      <c r="Q5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="40"/>
-    </row>
-    <row r="5" spans="16:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="P5" s="41" t="s">
+      <c r="R5" s="27"/>
+      <c r="S5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="16:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="P6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q6" s="19">
+        <f>'Cassino-Jan'!I2</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="27"/>
+      <c r="S6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="21">
+        <f>'Surebet-Jan'!Q3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="16:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="P7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="53"/>
-      <c r="S5" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="43" t="s">
+      <c r="Q7" s="19">
+        <f>'Cassino-Fev'!I2</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="27"/>
+      <c r="S7" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="16:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="P6" s="44" t="s">
+      <c r="T7" s="21">
+        <f>'Surebet-Fev'!Q3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="16:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="P8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="45">
-        <f>'Cassino-Jan'!I2</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="53"/>
-      <c r="S6" s="46" t="s">
+      <c r="Q8" s="19">
+        <f>'Cassino-Mar'!I2</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="27"/>
+      <c r="S8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="47">
-        <f>'Surebet-Jan'!Q3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="16:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="P7" s="44" t="s">
+      <c r="T8" s="21">
+        <f>'Surebet-Mar'!Q3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="16:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="P9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="45">
-        <f>'Cassino-Fev'!I2</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="46" t="s">
+      <c r="Q9" s="19">
+        <f>'Cassino-Abr'!I2</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="27"/>
+      <c r="S9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="47">
-        <f>'Surebet-Fev'!Q3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="16:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="P8" s="44" t="s">
+      <c r="T9" s="21">
+        <f>'Surebet-Abr'!Q3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="16:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="P10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="45">
-        <f>'Cassino-Mar'!I2</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="53"/>
-      <c r="S8" s="46" t="s">
+      <c r="Q10" s="19">
+        <f>'Cassino-Mai'!I2</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="27"/>
+      <c r="S10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="47">
-        <f>'Surebet-Mar'!Q3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="16:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="P9" s="44" t="s">
+      <c r="T10" s="21">
+        <f>'Surebet-Mai'!Q3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="16:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="P11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="45">
-        <f>'Cassino-Abr'!I2</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="53"/>
-      <c r="S9" s="46" t="s">
+      <c r="Q11" s="19">
+        <f>'Cassino-Jun'!I2</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="27"/>
+      <c r="S11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="47">
-        <f>'Surebet-Abr'!Q3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="16:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="P10" s="44" t="s">
+      <c r="T11" s="21">
+        <f>'Surebet-Jun'!Q3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="16:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="P12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="45">
-        <f>'Cassino-Mai'!I2</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="53"/>
-      <c r="S10" s="46" t="s">
+      <c r="Q12" s="19">
+        <f>'Cassino-Jul'!I2</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="27"/>
+      <c r="S12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="47">
-        <f>'Surebet-Mai'!Q3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="16:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="P11" s="44" t="s">
+      <c r="T12" s="21">
+        <f>'Surebet-Jul'!Q3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="16:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="P13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="45">
-        <f>'Cassino-Jun'!I2</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="53"/>
-      <c r="S11" s="46" t="s">
+      <c r="Q13" s="19">
+        <f>'Cassino-Ago'!I2</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="27"/>
+      <c r="S13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="47">
-        <f>'Surebet-Jun'!Q3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="16:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="P12" s="44" t="s">
+      <c r="T13" s="21">
+        <f>'Surebet-Ago'!Q3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="16:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="P14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="45">
-        <f>'Cassino-Jul'!I2</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="53"/>
-      <c r="S12" s="46" t="s">
+      <c r="Q14" s="19">
+        <f>'Cassino-Set'!I2</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="27"/>
+      <c r="S14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="47">
-        <f>'Surebet-Jul'!Q3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="16:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="P13" s="44" t="s">
+      <c r="T14" s="21">
+        <f>'Surebet-Set'!Q3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="16:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="P15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="45">
-        <f>'Cassino-Ago'!I2</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="53"/>
-      <c r="S13" s="46" t="s">
+      <c r="Q15" s="19">
+        <f>'Cassino-Out'!I2</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="27"/>
+      <c r="S15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T13" s="47">
-        <f>'Surebet-Ago'!Q3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="16:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="P14" s="44" t="s">
+      <c r="T15" s="21">
+        <f>'Surebet-Out'!Q3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="16:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="P16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="45">
-        <f>'Cassino-Set'!I2</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="53"/>
-      <c r="S14" s="46" t="s">
+      <c r="Q16" s="19">
+        <f>'Cassino-Nov'!I2</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="27"/>
+      <c r="S16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="T14" s="47">
-        <f>'Surebet-Set'!Q3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="16:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="P15" s="44" t="s">
+      <c r="T16" s="21">
+        <f>'Surebet-Nov'!Q3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P17" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="45">
-        <f>'Cassino-Out'!I2</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="53"/>
-      <c r="S15" s="46" t="s">
+      <c r="Q17" s="23">
+        <f>'Cassino-Dez'!I2</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="28"/>
+      <c r="S17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="T15" s="47">
-        <f>'Surebet-Out'!Q3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="16:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="P16" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="45">
-        <f>'Cassino-Nov'!I2</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="53"/>
-      <c r="S16" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="T16" s="47">
-        <f>'Surebet-Nov'!Q3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="P17" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" s="49">
-        <f>'Cassino-Dez'!I2</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="54"/>
-      <c r="S17" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="T17" s="51">
+      <c r="T17" s="25">
         <f>'Surebet-Dez'!Q3</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
+      <c r="D19" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="34"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="49"/>
     </row>
     <row r="21" spans="4:20" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="D21" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
+      <c r="D21" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="34"/>
     </row>
     <row r="22" spans="4:20" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
     </row>
     <row r="23" spans="4:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D23" s="26">
+      <c r="D23" s="38">
         <f>SUM(Q6:Q17)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="26">
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="38">
         <f>SUM(T6:T17)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="28"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="40"/>
     </row>
     <row r="24" spans="4:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="P2:T3"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="D21:G22"/>
     <mergeCell ref="I21:L22"/>
     <mergeCell ref="D23:G24"/>
     <mergeCell ref="I23:L24"/>
     <mergeCell ref="D19:L20"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="P2:T3"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1306,46 +1300,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15">
+      <c r="F2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57">
         <f>SUM(C:C)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1383,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1434,19 +1428,19 @@
         <f>IF(J3=C3,E3-I3,IF(J3=F3,H3-I3,""))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15">
+      <c r="N3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57">
         <f>SUM(K:K)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I4" s="10">
@@ -1457,14 +1451,14 @@
         <f t="shared" ref="K4:K67" si="1">IF(J4=C4,E4-I4,IF(J4=F4,H4-I4,""))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="10">
@@ -1475,14 +1469,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="10">
@@ -6464,46 +6458,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15">
+      <c r="F2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57">
         <f>SUM(C:C)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6541,7 +6535,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -6592,19 +6586,19 @@
         <f>IF(J3=C3,E3-I3,IF(J3=F3,H3-I3,""))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15">
+      <c r="N3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57">
         <f>SUM(K:K)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I4" s="10">
@@ -6615,14 +6609,14 @@
         <f t="shared" ref="K4:K67" si="1">IF(J4=C4,E4-I4,IF(J4=F4,H4-I4,""))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="10">
@@ -6633,14 +6627,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="10">
@@ -11622,46 +11616,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15">
+      <c r="F2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57">
         <f>SUM(C:C)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11699,7 +11693,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -11750,19 +11744,19 @@
         <f>IF(J3=C3,E3-I3,IF(J3=F3,H3-I3,""))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15">
+      <c r="N3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57">
         <f>SUM(K:K)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I4" s="10">
@@ -11773,14 +11767,14 @@
         <f t="shared" ref="K4:K67" si="1">IF(J4=C4,E4-I4,IF(J4=F4,H4-I4,""))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="10">
@@ -11791,14 +11785,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="10">
@@ -16780,46 +16774,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15">
+      <c r="F2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57">
         <f>SUM(C:C)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16857,7 +16851,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -16908,19 +16902,19 @@
         <f>IF(J3=C3,E3-I3,IF(J3=F3,H3-I3,""))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15">
+      <c r="N3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57">
         <f>SUM(K:K)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I4" s="10">
@@ -16931,14 +16925,14 @@
         <f t="shared" ref="K4:K67" si="1">IF(J4=C4,E4-I4,IF(J4=F4,H4-I4,""))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="10">
@@ -16949,14 +16943,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="10">
@@ -21938,46 +21932,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15">
+      <c r="F2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57">
         <f>SUM(C:C)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22015,7 +22009,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -22066,19 +22060,19 @@
         <f>IF(J3=C3,E3-I3,IF(J3=F3,H3-I3,""))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15">
+      <c r="N3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57">
         <f>SUM(K:K)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I4" s="10">
@@ -22089,14 +22083,14 @@
         <f t="shared" ref="K4:K67" si="1">IF(J4=C4,E4-I4,IF(J4=F4,H4-I4,""))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="10">
@@ -22107,14 +22101,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="10">
@@ -27096,46 +27090,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15">
+      <c r="F2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57">
         <f>SUM(C:C)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -27167,46 +27161,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15">
+      <c r="F2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57">
         <f>SUM(C:C)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -27244,7 +27238,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -27295,19 +27289,19 @@
         <f>IF(J3=C3,E3-I3,IF(J3=F3,H3-I3,""))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15">
+      <c r="N3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57">
         <f>SUM(K:K)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I4" s="10">
@@ -27318,14 +27312,14 @@
         <f t="shared" ref="K4:K67" si="1">IF(J4=C4,E4-I4,IF(J4=F4,H4-I4,""))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="10">
@@ -27336,14 +27330,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="10">
@@ -32325,46 +32319,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15">
+      <c r="F2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57">
         <f>SUM(C:C)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32402,7 +32396,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -32453,19 +32447,19 @@
         <f>IF(J3=C3,E3-I3,IF(J3=F3,H3-I3,""))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15">
+      <c r="N3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57">
         <f>SUM(K:K)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I4" s="10">
@@ -32476,14 +32470,14 @@
         <f t="shared" ref="K4:K67" si="1">IF(J4=C4,E4-I4,IF(J4=F4,H4-I4,""))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="10">
@@ -32494,14 +32488,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="10">
@@ -37483,46 +37477,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15">
+      <c r="F2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57">
         <f>SUM(C:C)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -37560,7 +37554,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -37611,19 +37605,19 @@
         <f>IF(J3=C3,E3-I3,IF(J3=F3,H3-I3,""))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15">
+      <c r="N3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57">
         <f>SUM(K:K)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I4" s="10">
@@ -37634,14 +37628,14 @@
         <f t="shared" ref="K4:K67" si="1">IF(J4=C4,E4-I4,IF(J4=F4,H4-I4,""))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="10">
@@ -37652,14 +37646,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="10">
@@ -42625,8 +42619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D521F99A-7313-4E66-A9F0-83F5038E82D1}">
   <dimension ref="A1:U500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42647,7 +42641,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -42678,37 +42672,15 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>45660</v>
-      </c>
-      <c r="B2" s="11">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="8">
-        <v>48</v>
-      </c>
-      <c r="E2" s="8">
-        <v>336</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="9">
-        <v>273</v>
-      </c>
-      <c r="H2" s="9">
-        <v>333.06</v>
-      </c>
+      <c r="A2" s="7"/>
+      <c r="B2" s="11"/>
       <c r="I2" s="10">
         <f>G2+D2</f>
-        <v>321</v>
-      </c>
-      <c r="K2" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
         <f>IF(J2=C2,E2-I2,IF(J2=F2,H2-I2,""))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -42720,19 +42692,19 @@
         <f t="shared" ref="K3:K66" si="1">IF(J3=C3,E3-I3,IF(J3=F3,H3-I3,""))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15">
+      <c r="N3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57">
         <f>SUM(K:K)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I4" s="10">
@@ -42743,14 +42715,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="10">
@@ -42761,14 +42733,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="10">
@@ -47750,46 +47722,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15">
+      <c r="F2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57">
         <f>SUM(C:C)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -47827,7 +47799,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -47878,19 +47850,19 @@
         <f>IF(J3=C3,E3-I3,IF(J3=F3,H3-I3,""))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15">
+      <c r="N3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57">
         <f>SUM(K:K)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I4" s="10">
@@ -47901,14 +47873,14 @@
         <f t="shared" ref="K4:K67" si="1">IF(J4=C4,E4-I4,IF(J4=F4,H4-I4,""))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="10">
@@ -47919,14 +47891,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="10">
@@ -52908,46 +52880,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15">
+      <c r="F2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57">
         <f>SUM(C:C)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -52985,7 +52957,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -53036,19 +53008,19 @@
         <f>IF(J3=C3,E3-I3,IF(J3=F3,H3-I3,""))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15">
+      <c r="N3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57">
         <f>SUM(K:K)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I4" s="10">
@@ -53059,14 +53031,14 @@
         <f t="shared" ref="K4:K67" si="1">IF(J4=C4,E4-I4,IF(J4=F4,H4-I4,""))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="10">
@@ -53077,14 +53049,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="10">
@@ -58066,46 +58038,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15">
+      <c r="F2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57">
         <f>SUM(C:C)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -58143,7 +58115,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -58194,19 +58166,19 @@
         <f>IF(J3=C3,E3-I3,IF(J3=F3,H3-I3,""))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15">
+      <c r="N3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57">
         <f>SUM(K:K)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I4" s="10">
@@ -58217,14 +58189,14 @@
         <f t="shared" ref="K4:K67" si="1">IF(J4=C4,E4-I4,IF(J4=F4,H4-I4,""))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="10">
@@ -58235,14 +58207,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="10">
